--- a/Phys 230 Lab Reports/Experiment 4/images/Experiment-7.xlsx
+++ b/Phys 230 Lab Reports/Experiment 4/images/Experiment-7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED893CD2-7B2F-45E9-A477-17AD5CEBE2F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D829172-1EFC-47AC-BE7C-4B773DCF4D95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,7 +812,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" dirty="0"/>
-                  <a:t>ln (</a:t>
+                  <a:t>ln (|</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" dirty="0" err="1"/>
@@ -821,6 +821,10 @@
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" baseline="-25000" dirty="0" err="1"/>
                   <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="2000" baseline="0" dirty="0" err="1"/>
+                  <a:t>|</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" dirty="0"/>
@@ -1410,7 +1414,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1442,6 +1446,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45287075103912172"/>
+              <c:y val="0.86028174335849827"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1509,7 +1521,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="492480888"/>
-        <c:crosses val="autoZero"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -1518,7 +1530,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1544,11 +1556,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" baseline="0" dirty="0"/>
-                  <a:t> (</a:t>
+                  <a:t> (|</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" baseline="0" dirty="0" err="1"/>
-                  <a:t>Fm</a:t>
+                  <a:t>F</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="2000" baseline="-25000" dirty="0" err="1"/>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="2000" baseline="0" dirty="0" err="1"/>
+                  <a:t>|</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="2000" baseline="0" dirty="0"/>
@@ -1558,6 +1578,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7614926421448978E-2"/>
+              <c:y val="0.38898328117244746"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1625,7 +1653,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="492481672"/>
-        <c:crosses val="autoZero"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3190,7 +3218,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
